--- a/src/test/resources/erillishaku_toinen_aste.xlsx
+++ b/src/test/resources/erillishaku_toinen_aste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kotikunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toisen asteen pohjakoulutus suoritettu</t>
   </si>
   <si>
     <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
@@ -273,18 +276,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="14" min="1" style="1" width="9.23703703703704"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="9.23703703703704"/>
-    <col collapsed="false" hidden="false" max="255" min="16" style="1" width="9.23703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="256" style="0" width="9.23703703703704"/>
+    <col collapsed="false" hidden="false" max="14" min="1" style="1" width="9.92222222222222"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="9.92222222222222"/>
+    <col collapsed="false" hidden="false" max="256" min="16" style="1" width="9.92222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -354,68 +356,70 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/erillishaku_toinen_aste.xlsx
+++ b/src/test/resources/erillishaku_toinen_aste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Erillishaku" sheetId="1" state="visible" r:id="rId2"/>
@@ -278,15 +278,16 @@
   </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="14" min="1" style="1" width="9.92222222222222"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="9.92222222222222"/>
-    <col collapsed="false" hidden="false" max="256" min="16" style="1" width="9.92222222222222"/>
+    <col collapsed="false" hidden="false" max="14" min="1" style="1" width="11.5703703703704"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="11.5703703703704"/>
+    <col collapsed="false" hidden="false" max="256" min="16" style="1" width="11.5703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="9.83703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -427,7 +428,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
